--- a/SAF_Player_Data.xlsx
+++ b/SAF_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/SAF_Player_Data.xlsx
+++ b/SAF_Player_Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerCountryList.asp?Country_SAF_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$39</definedName>
+    <definedName name="PlayerCountryList.asp?Country_SAF_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -164,24 +164,9 @@
     <t>28/08/1997</t>
   </si>
   <si>
-    <t>D M Dupavillon*</t>
-  </si>
-  <si>
-    <t>Daryn Dupavillon</t>
-  </si>
-  <si>
-    <t>15/07/1994</t>
-  </si>
-  <si>
     <t>2020-</t>
   </si>
   <si>
-    <t>17*</t>
-  </si>
-  <si>
-    <t>1/21</t>
-  </si>
-  <si>
     <t>B C Fortuin*</t>
   </si>
   <si>
@@ -479,33 +464,6 @@
     <t>5/49</t>
   </si>
   <si>
-    <t>L Sipamla*</t>
-  </si>
-  <si>
-    <t>Lutho Sipamla</t>
-  </si>
-  <si>
-    <t>12/05/1998</t>
-  </si>
-  <si>
-    <t>1/40</t>
-  </si>
-  <si>
-    <t>J T Smuts*</t>
-  </si>
-  <si>
-    <t>JJ Smuts</t>
-  </si>
-  <si>
-    <t>21/09/1988</t>
-  </si>
-  <si>
-    <t>84*</t>
-  </si>
-  <si>
-    <t>2/42</t>
-  </si>
-  <si>
     <t>T Stubbs*</t>
   </si>
   <si>
@@ -614,7 +572,7 @@
     <t>54*</t>
   </si>
   <si>
-    <t>Total Players = 37</t>
+    <t>Total Players = 34</t>
   </si>
 </sst>
 </file>
@@ -936,9 +894,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,25 +1194,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1263,19 +1221,19 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>29.17</v>
       </c>
       <c r="N7">
-        <v>4.6399999999999997</v>
+        <v>5.65</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
@@ -1292,40 +1250,37 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>29.17</v>
-      </c>
-      <c r="N8">
-        <v>5.65</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1342,13 +1297,13 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1357,110 +1312,113 @@
         <v>56</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
+      <c r="M9">
+        <v>34.6</v>
+      </c>
+      <c r="N9">
+        <v>5.38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>929</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>29.03</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.6</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>5.38</v>
+        <v>6.71</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>929</v>
+        <v>422</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>30.14</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11">
-        <v>29.03</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
-        <v>47</v>
+        <v>32.51</v>
       </c>
       <c r="N11">
-        <v>6.71</v>
+        <v>6.35</v>
       </c>
       <c r="O11" t="s">
         <v>68</v>
@@ -1477,37 +1435,37 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>1723</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>422</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>75</v>
-      </c>
       <c r="J12">
-        <v>30.14</v>
+        <v>40.07</v>
       </c>
       <c r="K12">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>32.51</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>6.35</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="s">
         <v>73</v>
@@ -1524,225 +1482,225 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>1723</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>4.8</v>
+      </c>
+      <c r="O13" t="s">
         <v>77</v>
-      </c>
-      <c r="J13">
-        <v>40.07</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>6.6</v>
-      </c>
-      <c r="O13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>25.4</v>
+      </c>
+      <c r="N14">
+        <v>6.68</v>
+      </c>
+      <c r="O14" t="s">
         <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14">
-        <v>27</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>24</v>
-      </c>
-      <c r="N14">
-        <v>4.8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>238</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15">
+        <v>13.22</v>
+      </c>
+      <c r="K15">
         <v>55</v>
       </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>18</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>15</v>
-      </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>25.4</v>
+        <v>30.65</v>
       </c>
       <c r="N15">
-        <v>6.68</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>238</v>
+        <v>958</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>177</v>
       </c>
       <c r="J16">
-        <v>13.22</v>
+        <v>47.9</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>30.65</v>
-      </c>
-      <c r="N16">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="O16" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G17">
-        <v>958</v>
+        <v>2121</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>177</v>
+      <c r="I17" t="s">
+        <v>94</v>
       </c>
       <c r="J17">
-        <v>47.9</v>
+        <v>36.57</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
+      <c r="M17">
+        <v>46.28</v>
+      </c>
+      <c r="N17">
+        <v>5.67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1756,40 +1714,37 @@
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E18">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="F18">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="G18">
-        <v>2121</v>
+        <v>4458</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J18">
-        <v>36.57</v>
+        <v>42.06</v>
       </c>
       <c r="K18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>46.28</v>
-      </c>
-      <c r="N18">
-        <v>5.67</v>
-      </c>
-      <c r="O18" t="s">
-        <v>100</v>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1803,60 +1758,63 @@
         <v>103</v>
       </c>
       <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>10.25</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>35.17</v>
+      </c>
+      <c r="N19">
+        <v>5.7</v>
+      </c>
+      <c r="O19" t="s">
         <v>104</v>
-      </c>
-      <c r="E19">
-        <v>173</v>
-      </c>
-      <c r="F19">
-        <v>149</v>
-      </c>
-      <c r="G19">
-        <v>4458</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19">
-        <v>42.06</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1865,66 +1823,66 @@
         <v>19</v>
       </c>
       <c r="J20">
-        <v>10.25</v>
+        <v>11.38</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>35.17</v>
+        <v>28.5</v>
       </c>
       <c r="N20">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21">
-        <v>56</v>
-      </c>
-      <c r="F21">
-        <v>22</v>
-      </c>
-      <c r="G21">
-        <v>91</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>19</v>
-      </c>
       <c r="J21">
-        <v>11.38</v>
+        <v>6.67</v>
       </c>
       <c r="K21">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>28.5</v>
+        <v>27.28</v>
       </c>
       <c r="N21">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="O21" t="s">
         <v>113</v>
@@ -1941,37 +1899,37 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>574</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="J22">
-        <v>6.67</v>
+        <v>20.5</v>
       </c>
       <c r="K22">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>27.28</v>
+        <v>30.4</v>
       </c>
       <c r="N22">
-        <v>5.86</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="s">
         <v>118</v>
@@ -1988,84 +1946,84 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>853</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>69</v>
+      </c>
+      <c r="J23">
+        <v>25.85</v>
+      </c>
+      <c r="K23">
+        <v>91</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>31.75</v>
+      </c>
+      <c r="N23">
+        <v>5.79</v>
+      </c>
+      <c r="O23" t="s">
         <v>122</v>
-      </c>
-      <c r="E23">
-        <v>73</v>
-      </c>
-      <c r="F23">
-        <v>43</v>
-      </c>
-      <c r="G23">
-        <v>574</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23">
-        <v>20.5</v>
-      </c>
-      <c r="K23">
-        <v>99</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>30.4</v>
-      </c>
-      <c r="N23">
-        <v>5.6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
         <v>124</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>853</v>
+        <v>192</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>69</v>
+      <c r="I24" t="s">
+        <v>126</v>
       </c>
       <c r="J24">
-        <v>25.85</v>
+        <v>16</v>
       </c>
       <c r="K24">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>31.75</v>
+        <v>27.06</v>
       </c>
       <c r="N24">
-        <v>5.79</v>
+        <v>4.97</v>
       </c>
       <c r="O24" t="s">
         <v>127</v>
@@ -2082,37 +2040,37 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E25">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>192</v>
+        <v>360</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>131</v>
+      <c r="I25">
+        <v>31</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>27.06</v>
+        <v>27.78</v>
       </c>
       <c r="N25">
-        <v>4.97</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="O25" t="s">
         <v>132</v>
@@ -2129,175 +2087,172 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>136</v>
       </c>
-      <c r="E26">
-        <v>101</v>
-      </c>
-      <c r="F26">
-        <v>42</v>
-      </c>
-      <c r="G26">
-        <v>360</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>31</v>
-      </c>
       <c r="J26">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="K26">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>27.78</v>
-      </c>
-      <c r="N26">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="O26" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>139</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>9.5</v>
+      </c>
+      <c r="K27">
+        <v>72</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>31.72</v>
+      </c>
+      <c r="N27">
+        <v>5.52</v>
+      </c>
+      <c r="O27" t="s">
         <v>140</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27">
-        <v>8.5</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>51</v>
-      </c>
-      <c r="F28">
-        <v>14</v>
-      </c>
-      <c r="G28">
-        <v>38</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>11</v>
-      </c>
       <c r="J28">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>31.72</v>
-      </c>
-      <c r="N28">
-        <v>5.52</v>
-      </c>
-      <c r="O28" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29">
+      <c r="J29">
         <v>5</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>14</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>14.42</v>
       </c>
       <c r="N29">
-        <v>5.67</v>
+        <v>5.35</v>
       </c>
       <c r="O29" t="s">
         <v>149</v>
@@ -2314,37 +2269,37 @@
         <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E30">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>2360</v>
+      </c>
+      <c r="H30">
         <v>6</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>180</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>153</v>
       </c>
       <c r="J30">
-        <v>45</v>
+        <v>52.44</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>5.47</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
         <v>154</v>
@@ -2361,16 +2316,16 @@
         <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2379,66 +2334,66 @@
         <v>158</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>9.75</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>20</v>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="O31" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>371</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>41.22</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>14.42</v>
-      </c>
-      <c r="N32">
-        <v>5.35</v>
-      </c>
-      <c r="O32" t="s">
-        <v>163</v>
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2452,119 +2407,119 @@
         <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E33">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>2360</v>
+        <v>102</v>
       </c>
       <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>35.11</v>
+      </c>
+      <c r="N33">
+        <v>6.45</v>
+      </c>
+      <c r="O33" t="s">
         <v>167</v>
-      </c>
-      <c r="J33">
-        <v>52.44</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
         <v>169</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>170</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>39</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>47.6</v>
+      </c>
+      <c r="N34">
+        <v>6.67</v>
+      </c>
+      <c r="O34" t="s">
         <v>172</v>
-      </c>
-      <c r="J34">
-        <v>9.75</v>
-      </c>
-      <c r="K34">
-        <v>17</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
-      </c>
-      <c r="N34">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="O34" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
         <v>174</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>175</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>146</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>176</v>
       </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>371</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
-      </c>
       <c r="J35">
-        <v>41.22</v>
+        <v>29.2</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2581,145 +2536,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>102</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>41</v>
-      </c>
-      <c r="J36">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>35.11</v>
-      </c>
-      <c r="N36">
-        <v>6.45</v>
-      </c>
-      <c r="O36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>47.6</v>
-      </c>
-      <c r="N37">
-        <v>6.67</v>
-      </c>
-      <c r="O37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>146</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J38">
-        <v>29.2</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
